--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Mmrn2</t>
   </si>
   <si>
     <t>Cd248</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.34952500000001</v>
+        <v>42.72896566666666</v>
       </c>
       <c r="H2">
-        <v>103.048575</v>
+        <v>128.186897</v>
       </c>
       <c r="I2">
-        <v>0.9193849879779717</v>
+        <v>0.9532628077777061</v>
       </c>
       <c r="J2">
-        <v>0.9193849879779719</v>
+        <v>0.9532628077777062</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5622980000000001</v>
+        <v>4.679005333333333</v>
       </c>
       <c r="N2">
-        <v>1.686894</v>
+        <v>14.037016</v>
       </c>
       <c r="O2">
-        <v>0.009268211472603169</v>
+        <v>0.06888790625868858</v>
       </c>
       <c r="P2">
-        <v>0.00926821147260317</v>
+        <v>0.06888790625868858</v>
       </c>
       <c r="Q2">
-        <v>19.31466920845001</v>
+        <v>199.9290582421502</v>
       </c>
       <c r="R2">
-        <v>173.83202287605</v>
+        <v>1799.361524179352</v>
       </c>
       <c r="S2">
-        <v>0.008521054493316563</v>
+        <v>0.06566827894208489</v>
       </c>
       <c r="T2">
-        <v>0.008521054493316567</v>
+        <v>0.06566827894208491</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.34952500000001</v>
+        <v>42.72896566666666</v>
       </c>
       <c r="H3">
-        <v>103.048575</v>
+        <v>128.186897</v>
       </c>
       <c r="I3">
-        <v>0.9193849879779717</v>
+        <v>0.9532628077777061</v>
       </c>
       <c r="J3">
-        <v>0.9193849879779719</v>
+        <v>0.9532628077777062</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>161.090397</v>
       </c>
       <c r="O3">
-        <v>0.885070351546451</v>
+        <v>0.790565471159321</v>
       </c>
       <c r="P3">
-        <v>0.8850703515464511</v>
+        <v>0.7905654711593211</v>
       </c>
       <c r="Q3">
-        <v>1844.459539670475</v>
+        <v>2294.408680880901</v>
       </c>
       <c r="R3">
-        <v>16600.13585703428</v>
+        <v>20649.67812792811</v>
       </c>
       <c r="S3">
-        <v>0.813720394516193</v>
+        <v>0.7536166607694395</v>
       </c>
       <c r="T3">
-        <v>0.8137203945161933</v>
+        <v>0.7536166607694397</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.34952500000001</v>
+        <v>42.72896566666666</v>
       </c>
       <c r="H4">
-        <v>103.048575</v>
+        <v>128.186897</v>
       </c>
       <c r="I4">
-        <v>0.9193849879779717</v>
+        <v>0.9532628077777061</v>
       </c>
       <c r="J4">
-        <v>0.9193849879779719</v>
+        <v>0.9532628077777062</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01852233333333333</v>
+        <v>9.233928333333333</v>
       </c>
       <c r="N4">
-        <v>0.055567</v>
+        <v>27.701785</v>
       </c>
       <c r="O4">
-        <v>0.0003052987958331348</v>
+        <v>0.1359489772098532</v>
       </c>
       <c r="P4">
-        <v>0.0003052987958331349</v>
+        <v>0.1359489772098532</v>
       </c>
       <c r="Q4">
-        <v>0.6362333518916667</v>
+        <v>394.5562067234605</v>
       </c>
       <c r="R4">
-        <v>5.726100167025001</v>
+        <v>3551.005860511145</v>
       </c>
       <c r="S4">
-        <v>0.0002806871297367359</v>
+        <v>0.1295951037295721</v>
       </c>
       <c r="T4">
-        <v>0.0002806871297367361</v>
+        <v>0.1295951037295721</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.34952500000001</v>
+        <v>42.72896566666666</v>
       </c>
       <c r="H5">
-        <v>103.048575</v>
+        <v>128.186897</v>
       </c>
       <c r="I5">
-        <v>0.9193849879779717</v>
+        <v>0.9532628077777061</v>
       </c>
       <c r="J5">
-        <v>0.9193849879779719</v>
+        <v>0.9532628077777062</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>6.290896666666668</v>
+        <v>0.1728776666666667</v>
       </c>
       <c r="N5">
-        <v>18.87269</v>
+        <v>0.518633</v>
       </c>
       <c r="O5">
-        <v>0.1036912111708756</v>
+        <v>0.002545237640725239</v>
       </c>
       <c r="P5">
-        <v>0.1036912111708757</v>
+        <v>0.002545237640725239</v>
       </c>
       <c r="Q5">
-        <v>216.0893123240834</v>
+        <v>7.386883883533444</v>
       </c>
       <c r="R5">
-        <v>1944.803810916751</v>
+        <v>66.481954951801</v>
       </c>
       <c r="S5">
-        <v>0.09533214293575683</v>
+        <v>0.002426280379859246</v>
       </c>
       <c r="T5">
-        <v>0.09533214293575687</v>
+        <v>0.002426280379859246</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,61 +788,61 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.34952500000001</v>
+        <v>42.72896566666666</v>
       </c>
       <c r="H6">
-        <v>103.048575</v>
+        <v>128.186897</v>
       </c>
       <c r="I6">
-        <v>0.9193849879779717</v>
+        <v>0.9532628077777061</v>
       </c>
       <c r="J6">
-        <v>0.9193849879779719</v>
+        <v>0.9532628077777062</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.02414466666666666</v>
+        <v>0.1394036666666667</v>
       </c>
       <c r="N6">
-        <v>0.072434</v>
+        <v>0.418211</v>
       </c>
       <c r="O6">
-        <v>0.0003979702517209367</v>
+        <v>0.002052407731411891</v>
       </c>
       <c r="P6">
-        <v>0.0003979702517209368</v>
+        <v>0.002052407731411891</v>
       </c>
       <c r="Q6">
-        <v>0.8293578312833334</v>
+        <v>5.956574486807444</v>
       </c>
       <c r="R6">
-        <v>7.464220481550001</v>
+        <v>53.60917038126699</v>
       </c>
       <c r="S6">
-        <v>0.0003658878750940437</v>
+        <v>0.001956483956750371</v>
       </c>
       <c r="T6">
-        <v>0.0003658878750940439</v>
+        <v>0.001956483956750371</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.34952500000001</v>
+        <v>1.096366</v>
       </c>
       <c r="H7">
-        <v>103.048575</v>
+        <v>3.289098</v>
       </c>
       <c r="I7">
-        <v>0.9193849879779717</v>
+        <v>0.02445940160745164</v>
       </c>
       <c r="J7">
-        <v>0.9193849879779719</v>
+        <v>0.02445940160745165</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.07686566666666668</v>
+        <v>4.679005333333333</v>
       </c>
       <c r="N7">
-        <v>0.230597</v>
+        <v>14.037016</v>
       </c>
       <c r="O7">
-        <v>0.001266956762516123</v>
+        <v>0.06888790625868858</v>
       </c>
       <c r="P7">
-        <v>0.001266956762516123</v>
+        <v>0.06888790625868858</v>
       </c>
       <c r="Q7">
-        <v>2.640299138808334</v>
+        <v>5.129902361285334</v>
       </c>
       <c r="R7">
-        <v>23.76269224927501</v>
+        <v>46.169121251568</v>
       </c>
       <c r="S7">
-        <v>0.001164821027874496</v>
+        <v>0.001684956965077745</v>
       </c>
       <c r="T7">
-        <v>0.001164821027874496</v>
+        <v>0.001684956965077746</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +918,10 @@
         <v>3.289098</v>
       </c>
       <c r="I8">
-        <v>0.02934487279604177</v>
+        <v>0.02445940160745164</v>
       </c>
       <c r="J8">
-        <v>0.02934487279604178</v>
+        <v>0.02445940160745165</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5622980000000001</v>
+        <v>53.696799</v>
       </c>
       <c r="N8">
-        <v>1.686894</v>
+        <v>161.090397</v>
       </c>
       <c r="O8">
-        <v>0.009268211472603169</v>
+        <v>0.790565471159321</v>
       </c>
       <c r="P8">
-        <v>0.00926821147260317</v>
+        <v>0.7905654711593211</v>
       </c>
       <c r="Q8">
-        <v>0.6164844090680001</v>
+        <v>58.871344732434</v>
       </c>
       <c r="R8">
-        <v>5.548359681612</v>
+        <v>529.842102591906</v>
       </c>
       <c r="S8">
-        <v>0.000271974486710355</v>
+        <v>0.01933675835607006</v>
       </c>
       <c r="T8">
-        <v>0.0002719744867103551</v>
+        <v>0.01933675835607006</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +980,10 @@
         <v>3.289098</v>
       </c>
       <c r="I9">
-        <v>0.02934487279604177</v>
+        <v>0.02445940160745164</v>
       </c>
       <c r="J9">
-        <v>0.02934487279604178</v>
+        <v>0.02445940160745165</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>53.696799</v>
+        <v>9.233928333333333</v>
       </c>
       <c r="N9">
-        <v>161.090397</v>
+        <v>27.701785</v>
       </c>
       <c r="O9">
-        <v>0.885070351546451</v>
+        <v>0.1359489772098532</v>
       </c>
       <c r="P9">
-        <v>0.8850703515464511</v>
+        <v>0.1359489772098532</v>
       </c>
       <c r="Q9">
-        <v>58.871344732434</v>
+        <v>10.12376507110333</v>
       </c>
       <c r="R9">
-        <v>529.842102591906</v>
+        <v>91.11388563993</v>
       </c>
       <c r="S9">
-        <v>0.02597227688167858</v>
+        <v>0.003325230631698091</v>
       </c>
       <c r="T9">
-        <v>0.02597227688167859</v>
+        <v>0.003325230631698092</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1042,10 @@
         <v>3.289098</v>
       </c>
       <c r="I10">
-        <v>0.02934487279604177</v>
+        <v>0.02445940160745164</v>
       </c>
       <c r="J10">
-        <v>0.02934487279604178</v>
+        <v>0.02445940160745165</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1054,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.01852233333333333</v>
+        <v>0.1728776666666667</v>
       </c>
       <c r="N10">
-        <v>0.055567</v>
+        <v>0.518633</v>
       </c>
       <c r="O10">
-        <v>0.0003052987958331348</v>
+        <v>0.002545237640725239</v>
       </c>
       <c r="P10">
-        <v>0.0003052987958331349</v>
+        <v>0.002545237640725239</v>
       </c>
       <c r="Q10">
-        <v>0.02030725650733333</v>
+        <v>0.1895371958926667</v>
       </c>
       <c r="R10">
-        <v>0.182765308566</v>
+        <v>1.705834763034</v>
       </c>
       <c r="S10">
-        <v>8.958954328508069E-06</v>
+        <v>6.225498964090134E-05</v>
       </c>
       <c r="T10">
-        <v>8.958954328508074E-06</v>
+        <v>6.225498964090136E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1104,10 @@
         <v>3.289098</v>
       </c>
       <c r="I11">
-        <v>0.02934487279604177</v>
+        <v>0.02445940160745164</v>
       </c>
       <c r="J11">
-        <v>0.02934487279604178</v>
+        <v>0.02445940160745165</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,42 +1116,42 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.290896666666668</v>
+        <v>0.1394036666666667</v>
       </c>
       <c r="N11">
-        <v>18.87269</v>
+        <v>0.418211</v>
       </c>
       <c r="O11">
-        <v>0.1036912111708756</v>
+        <v>0.002052407731411891</v>
       </c>
       <c r="P11">
-        <v>0.1036912111708757</v>
+        <v>0.002052407731411891</v>
       </c>
       <c r="Q11">
-        <v>6.897125214846668</v>
+        <v>0.1528374404086667</v>
       </c>
       <c r="R11">
-        <v>62.07412693362001</v>
+        <v>1.375536963678</v>
       </c>
       <c r="S11">
-        <v>0.003042805401876851</v>
+        <v>5.020066496484218E-05</v>
       </c>
       <c r="T11">
-        <v>0.003042805401876853</v>
+        <v>5.020066496484219E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1160,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.096366</v>
+        <v>0.6147903333333333</v>
       </c>
       <c r="H12">
-        <v>3.289098</v>
+        <v>1.844371</v>
       </c>
       <c r="I12">
-        <v>0.02934487279604177</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="J12">
-        <v>0.02934487279604178</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.02414466666666666</v>
+        <v>4.679005333333333</v>
       </c>
       <c r="N12">
-        <v>0.072434</v>
+        <v>14.037016</v>
       </c>
       <c r="O12">
-        <v>0.0003979702517209367</v>
+        <v>0.06888790625868858</v>
       </c>
       <c r="P12">
-        <v>0.0003979702517209368</v>
+        <v>0.06888790625868858</v>
       </c>
       <c r="Q12">
-        <v>0.02647139161466667</v>
+        <v>2.876607248548444</v>
       </c>
       <c r="R12">
-        <v>0.238242524532</v>
+        <v>25.889465236936</v>
       </c>
       <c r="S12">
-        <v>1.167838641335961E-05</v>
+        <v>0.0009448443806287946</v>
       </c>
       <c r="T12">
-        <v>1.167838641335962E-05</v>
+        <v>0.0009448443806287946</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.096366</v>
+        <v>0.6147903333333333</v>
       </c>
       <c r="H13">
-        <v>3.289098</v>
+        <v>1.844371</v>
       </c>
       <c r="I13">
-        <v>0.02934487279604177</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="J13">
-        <v>0.02934487279604178</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.07686566666666668</v>
+        <v>53.696799</v>
       </c>
       <c r="N13">
-        <v>0.230597</v>
+        <v>161.090397</v>
       </c>
       <c r="O13">
-        <v>0.001266956762516123</v>
+        <v>0.790565471159321</v>
       </c>
       <c r="P13">
-        <v>0.001266956762516123</v>
+        <v>0.7905654711593211</v>
       </c>
       <c r="Q13">
-        <v>0.08427290350066667</v>
+        <v>33.012272956143</v>
       </c>
       <c r="R13">
-        <v>0.7584561315060001</v>
+        <v>297.110456605287</v>
       </c>
       <c r="S13">
-        <v>3.717868503412054E-05</v>
+        <v>0.01084314190271719</v>
       </c>
       <c r="T13">
-        <v>3.717868503412055E-05</v>
+        <v>0.01084314190271719</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9415566666666667</v>
+        <v>0.6147903333333333</v>
       </c>
       <c r="H14">
-        <v>2.82467</v>
+        <v>1.844371</v>
       </c>
       <c r="I14">
-        <v>0.02520131107093657</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="J14">
-        <v>0.02520131107093657</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5622980000000001</v>
+        <v>9.233928333333333</v>
       </c>
       <c r="N14">
-        <v>1.686894</v>
+        <v>27.701785</v>
       </c>
       <c r="O14">
-        <v>0.009268211472603169</v>
+        <v>0.1359489772098532</v>
       </c>
       <c r="P14">
-        <v>0.00926821147260317</v>
+        <v>0.1359489772098532</v>
       </c>
       <c r="Q14">
-        <v>0.5294354305533334</v>
+        <v>5.676929878026111</v>
       </c>
       <c r="R14">
-        <v>4.764918874980001</v>
+        <v>51.092368902235</v>
       </c>
       <c r="S14">
-        <v>0.0002335710803922955</v>
+        <v>0.0018646324753521</v>
       </c>
       <c r="T14">
-        <v>0.0002335710803922956</v>
+        <v>0.0018646324753521</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9415566666666667</v>
+        <v>0.6147903333333333</v>
       </c>
       <c r="H15">
-        <v>2.82467</v>
+        <v>1.844371</v>
       </c>
       <c r="I15">
-        <v>0.02520131107093657</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="J15">
-        <v>0.02520131107093657</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>53.696799</v>
+        <v>0.1728776666666667</v>
       </c>
       <c r="N15">
-        <v>161.090397</v>
+        <v>0.518633</v>
       </c>
       <c r="O15">
-        <v>0.885070351546451</v>
+        <v>0.002545237640725239</v>
       </c>
       <c r="P15">
-        <v>0.8850703515464511</v>
+        <v>0.002545237640725239</v>
       </c>
       <c r="Q15">
-        <v>50.55857907711</v>
+        <v>0.1062835183158889</v>
       </c>
       <c r="R15">
-        <v>455.02721169399</v>
+        <v>0.956551664843</v>
       </c>
       <c r="S15">
-        <v>0.02230493324898529</v>
+        <v>3.490966140229901E-05</v>
       </c>
       <c r="T15">
-        <v>0.0223049332489853</v>
+        <v>3.490966140229901E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1411,78 +1408,78 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9415566666666667</v>
+        <v>0.6147903333333333</v>
       </c>
       <c r="H16">
-        <v>2.82467</v>
+        <v>1.844371</v>
       </c>
       <c r="I16">
-        <v>0.02520131107093657</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="J16">
-        <v>0.02520131107093657</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.01852233333333333</v>
+        <v>0.1394036666666667</v>
       </c>
       <c r="N16">
-        <v>0.055567</v>
+        <v>0.418211</v>
       </c>
       <c r="O16">
-        <v>0.0003052987958331348</v>
+        <v>0.002052407731411891</v>
       </c>
       <c r="P16">
-        <v>0.0003052987958331349</v>
+        <v>0.002052407731411891</v>
       </c>
       <c r="Q16">
-        <v>0.01743982643222222</v>
+        <v>0.08570402669788889</v>
       </c>
       <c r="R16">
-        <v>0.15695843789</v>
+        <v>0.771336240281</v>
       </c>
       <c r="S16">
-        <v>7.693929923373183E-06</v>
+        <v>2.815016476914672E-05</v>
       </c>
       <c r="T16">
-        <v>7.693929923373186E-06</v>
+        <v>2.815016476914672E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.9415566666666667</v>
+        <v>0.359965</v>
       </c>
       <c r="H17">
-        <v>2.82467</v>
+        <v>1.079895</v>
       </c>
       <c r="I17">
-        <v>0.02520131107093657</v>
+        <v>0.008030647155809584</v>
       </c>
       <c r="J17">
-        <v>0.02520131107093657</v>
+        <v>0.008030647155809586</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,152 +1488,152 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.290896666666668</v>
+        <v>4.679005333333333</v>
       </c>
       <c r="N17">
-        <v>18.87269</v>
+        <v>14.037016</v>
       </c>
       <c r="O17">
-        <v>0.1036912111708756</v>
+        <v>0.06888790625868858</v>
       </c>
       <c r="P17">
-        <v>0.1036912111708757</v>
+        <v>0.06888790625868858</v>
       </c>
       <c r="Q17">
-        <v>5.923235695811113</v>
+        <v>1.684278154813334</v>
       </c>
       <c r="R17">
-        <v>53.30912126230001</v>
+        <v>15.15850339332</v>
       </c>
       <c r="S17">
-        <v>0.00261315446803941</v>
+        <v>0.0005532144684660147</v>
       </c>
       <c r="T17">
-        <v>0.002613154468039411</v>
+        <v>0.0005532144684660148</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.9415566666666667</v>
+        <v>0.359965</v>
       </c>
       <c r="H18">
-        <v>2.82467</v>
+        <v>1.079895</v>
       </c>
       <c r="I18">
-        <v>0.02520131107093657</v>
+        <v>0.008030647155809584</v>
       </c>
       <c r="J18">
-        <v>0.02520131107093657</v>
+        <v>0.008030647155809586</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.02414466666666666</v>
+        <v>53.696799</v>
       </c>
       <c r="N18">
-        <v>0.072434</v>
+        <v>161.090397</v>
       </c>
       <c r="O18">
-        <v>0.0003979702517209367</v>
+        <v>0.790565471159321</v>
       </c>
       <c r="P18">
-        <v>0.0003979702517209368</v>
+        <v>0.7905654711593211</v>
       </c>
       <c r="Q18">
-        <v>0.02273357186444444</v>
+        <v>19.328968252035</v>
       </c>
       <c r="R18">
-        <v>0.20460214678</v>
+        <v>173.960714268315</v>
       </c>
       <c r="S18">
-        <v>1.002937211059825E-05</v>
+        <v>0.006348752352446865</v>
       </c>
       <c r="T18">
-        <v>1.002937211059826E-05</v>
+        <v>0.006348752352446867</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.9415566666666667</v>
+        <v>0.359965</v>
       </c>
       <c r="H19">
-        <v>2.82467</v>
+        <v>1.079895</v>
       </c>
       <c r="I19">
-        <v>0.02520131107093657</v>
+        <v>0.008030647155809584</v>
       </c>
       <c r="J19">
-        <v>0.02520131107093657</v>
+        <v>0.008030647155809586</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.07686566666666668</v>
+        <v>9.233928333333333</v>
       </c>
       <c r="N19">
-        <v>0.230597</v>
+        <v>27.701785</v>
       </c>
       <c r="O19">
-        <v>0.001266956762516123</v>
+        <v>0.1359489772098532</v>
       </c>
       <c r="P19">
-        <v>0.001266956762516123</v>
+        <v>0.1359489772098532</v>
       </c>
       <c r="Q19">
-        <v>0.0723733808877778</v>
+        <v>3.323891012508334</v>
       </c>
       <c r="R19">
-        <v>0.6513604279900002</v>
+        <v>29.915019112575</v>
       </c>
       <c r="S19">
-        <v>3.192897148559552E-05</v>
+        <v>0.00109175826716553</v>
       </c>
       <c r="T19">
-        <v>3.192897148559553E-05</v>
+        <v>0.00109175826716553</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.9739683333333332</v>
+        <v>0.359965</v>
       </c>
       <c r="H20">
-        <v>2.921905</v>
+        <v>1.079895</v>
       </c>
       <c r="I20">
-        <v>0.02606882815504993</v>
+        <v>0.008030647155809584</v>
       </c>
       <c r="J20">
-        <v>0.02606882815504994</v>
+        <v>0.008030647155809586</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.5622980000000001</v>
+        <v>0.1728776666666667</v>
       </c>
       <c r="N20">
-        <v>1.686894</v>
+        <v>0.518633</v>
       </c>
       <c r="O20">
-        <v>0.009268211472603169</v>
+        <v>0.002545237640725239</v>
       </c>
       <c r="P20">
-        <v>0.00926821147260317</v>
+        <v>0.002545237640725239</v>
       </c>
       <c r="Q20">
-        <v>0.5476604458966666</v>
+        <v>0.06222990928166668</v>
       </c>
       <c r="R20">
-        <v>4.92894401307</v>
+        <v>0.560069183535</v>
       </c>
       <c r="S20">
-        <v>0.0002416114121839543</v>
+        <v>2.043990542034964E-05</v>
       </c>
       <c r="T20">
-        <v>0.0002416114121839544</v>
+        <v>2.043990542034965E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.9739683333333332</v>
+        <v>0.359965</v>
       </c>
       <c r="H21">
-        <v>2.921905</v>
+        <v>1.079895</v>
       </c>
       <c r="I21">
-        <v>0.02606882815504993</v>
+        <v>0.008030647155809584</v>
       </c>
       <c r="J21">
-        <v>0.02606882815504994</v>
+        <v>0.008030647155809586</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,122 +1736,122 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>53.696799</v>
+        <v>0.1394036666666667</v>
       </c>
       <c r="N21">
-        <v>161.090397</v>
+        <v>0.418211</v>
       </c>
       <c r="O21">
-        <v>0.885070351546451</v>
+        <v>0.002052407731411891</v>
       </c>
       <c r="P21">
-        <v>0.8850703515464511</v>
+        <v>0.002052407731411891</v>
       </c>
       <c r="Q21">
-        <v>52.29898182736499</v>
+        <v>0.05018044087166668</v>
       </c>
       <c r="R21">
-        <v>470.6908364462849</v>
+        <v>0.451623967845</v>
       </c>
       <c r="S21">
-        <v>0.02307274689959406</v>
+        <v>1.64821623108245E-05</v>
       </c>
       <c r="T21">
-        <v>0.02307274689959407</v>
+        <v>1.648216231082451E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.9739683333333332</v>
+        <v>0.02382233333333333</v>
       </c>
       <c r="H22">
-        <v>2.921905</v>
+        <v>0.071467</v>
       </c>
       <c r="I22">
-        <v>0.02606882815504993</v>
+        <v>0.0005314648741629914</v>
       </c>
       <c r="J22">
-        <v>0.02606882815504994</v>
+        <v>0.0005314648741629914</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.01852233333333333</v>
+        <v>4.679005333333333</v>
       </c>
       <c r="N22">
-        <v>0.055567</v>
+        <v>14.037016</v>
       </c>
       <c r="O22">
-        <v>0.0003052987958331348</v>
+        <v>0.06888790625868858</v>
       </c>
       <c r="P22">
-        <v>0.0003052987958331349</v>
+        <v>0.06888790625868858</v>
       </c>
       <c r="Q22">
-        <v>0.01804016612611111</v>
+        <v>0.1114648247191111</v>
       </c>
       <c r="R22">
-        <v>0.162361495135</v>
+        <v>1.003183422472</v>
       </c>
       <c r="S22">
-        <v>7.958781844517666E-06</v>
+        <v>3.661150243112588E-05</v>
       </c>
       <c r="T22">
-        <v>7.95878184451767E-06</v>
+        <v>3.661150243112588E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.9739683333333332</v>
+        <v>0.02382233333333333</v>
       </c>
       <c r="H23">
-        <v>2.921905</v>
+        <v>0.071467</v>
       </c>
       <c r="I23">
-        <v>0.02606882815504993</v>
+        <v>0.0005314648741629914</v>
       </c>
       <c r="J23">
-        <v>0.02606882815504994</v>
+        <v>0.0005314648741629914</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,152 +1860,214 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.290896666666668</v>
+        <v>53.696799</v>
       </c>
       <c r="N23">
-        <v>18.87269</v>
+        <v>161.090397</v>
       </c>
       <c r="O23">
-        <v>0.1036912111708756</v>
+        <v>0.790565471159321</v>
       </c>
       <c r="P23">
-        <v>0.1036912111708757</v>
+        <v>0.7905654711593211</v>
       </c>
       <c r="Q23">
-        <v>6.127134141605556</v>
+        <v>1.279183044711</v>
       </c>
       <c r="R23">
-        <v>55.14420727445</v>
+        <v>11.512647402399</v>
       </c>
       <c r="S23">
-        <v>0.002703108365202551</v>
+        <v>0.0004201577786472945</v>
       </c>
       <c r="T23">
-        <v>0.002703108365202552</v>
+        <v>0.0004201577786472946</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.9739683333333332</v>
+        <v>0.02382233333333333</v>
       </c>
       <c r="H24">
-        <v>2.921905</v>
+        <v>0.071467</v>
       </c>
       <c r="I24">
-        <v>0.02606882815504993</v>
+        <v>0.0005314648741629914</v>
       </c>
       <c r="J24">
-        <v>0.02606882815504994</v>
+        <v>0.0005314648741629914</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.02414466666666666</v>
+        <v>9.233928333333333</v>
       </c>
       <c r="N24">
-        <v>0.072434</v>
+        <v>27.701785</v>
       </c>
       <c r="O24">
-        <v>0.0003979702517209367</v>
+        <v>0.1359489772098532</v>
       </c>
       <c r="P24">
-        <v>0.0003979702517209368</v>
+        <v>0.1359489772098532</v>
       </c>
       <c r="Q24">
-        <v>0.02351614075222222</v>
+        <v>0.2199737187327778</v>
       </c>
       <c r="R24">
-        <v>0.21164526677</v>
+        <v>1.979763468595</v>
       </c>
       <c r="S24">
-        <v>1.037461810293506E-05</v>
+        <v>7.225210606542204E-05</v>
       </c>
       <c r="T24">
-        <v>1.037461810293507E-05</v>
+        <v>7.225210606542204E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.02382233333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.071467</v>
+      </c>
+      <c r="I25">
+        <v>0.0005314648741629914</v>
+      </c>
+      <c r="J25">
+        <v>0.0005314648741629914</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.1728776666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.518633</v>
+      </c>
+      <c r="O25">
+        <v>0.002545237640725239</v>
+      </c>
+      <c r="P25">
+        <v>0.002545237640725239</v>
+      </c>
+      <c r="Q25">
+        <v>0.004118349401222222</v>
+      </c>
+      <c r="R25">
+        <v>0.037065144611</v>
+      </c>
+      <c r="S25">
+        <v>1.352704402442948E-06</v>
+      </c>
+      <c r="T25">
+        <v>1.352704402442949E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.9739683333333332</v>
-      </c>
-      <c r="H25">
-        <v>2.921905</v>
-      </c>
-      <c r="I25">
-        <v>0.02606882815504993</v>
-      </c>
-      <c r="J25">
-        <v>0.02606882815504994</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.07686566666666668</v>
-      </c>
-      <c r="N25">
-        <v>0.230597</v>
-      </c>
-      <c r="O25">
-        <v>0.001266956762516123</v>
-      </c>
-      <c r="P25">
-        <v>0.001266956762516123</v>
-      </c>
-      <c r="Q25">
-        <v>0.07486472525388889</v>
-      </c>
-      <c r="R25">
-        <v>0.673782527285</v>
-      </c>
-      <c r="S25">
-        <v>3.302807812191122E-05</v>
-      </c>
-      <c r="T25">
-        <v>3.302807812191123E-05</v>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.02382233333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.071467</v>
+      </c>
+      <c r="I26">
+        <v>0.0005314648741629914</v>
+      </c>
+      <c r="J26">
+        <v>0.0005314648741629914</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1394036666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.418211</v>
+      </c>
+      <c r="O26">
+        <v>0.002052407731411891</v>
+      </c>
+      <c r="P26">
+        <v>0.002052407731411891</v>
+      </c>
+      <c r="Q26">
+        <v>0.003320920615222223</v>
+      </c>
+      <c r="R26">
+        <v>0.029888285537</v>
+      </c>
+      <c r="S26">
+        <v>1.090782616705971E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.090782616705971E-06</v>
       </c>
     </row>
   </sheetData>
